--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC0A9C-386D-4DFF-B4CC-82D3B7F192C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4517713-B927-4A1B-AECE-C4B1BF5219EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{0BF9FC95-3D90-473A-9309-85A16F5C70E6}"/>
+    <workbookView xWindow="2445" yWindow="915" windowWidth="19155" windowHeight="14565" xr2:uid="{0BF9FC95-3D90-473A-9309-85A16F5C70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDDB57B-3503-451A-B43C-2FCC25D6660C}">
   <dimension ref="G2:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="7:12" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>215899.41519999999</v>
+        <v>227692.24040000001</v>
       </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4+K6-K5</f>
-        <v>214918.41519999999</v>
+        <v>226711.24040000001</v>
       </c>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43F3591-A144-4A95-AE3F-806D25D95AB4}">
   <dimension ref="A1:DT78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2417,7 +2417,7 @@
     <row r="24" spans="1:124" x14ac:dyDescent="0.2">
       <c r="X24" s="8">
         <f>X23/Main!K2-1</f>
-        <v>5.7240012201918988E-2</v>
+        <v>2.4825613707439853E-3</v>
       </c>
     </row>
     <row r="25" spans="1:124" x14ac:dyDescent="0.2">

--- a/UNH.xlsx
+++ b/UNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4517713-B927-4A1B-AECE-C4B1BF5219EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB9111-B8BB-44AE-A4CF-044D3FBD5FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="915" windowWidth="19155" windowHeight="14565" xr2:uid="{0BF9FC95-3D90-473A-9309-85A16F5C70E6}"/>
+    <workbookView xWindow="3810" yWindow="435" windowWidth="20805" windowHeight="15015" xr2:uid="{0BF9FC95-3D90-473A-9309-85A16F5C70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
   <dimension ref="G2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>251</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="7:12" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
       </c>
       <c r="K4" s="2">
         <f>K3*K2</f>
-        <v>227692.24040000001</v>
+        <v>281213.52399999998</v>
       </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
       </c>
       <c r="K7" s="2">
         <f>K4+K6-K5</f>
-        <v>226711.24040000001</v>
+        <v>280232.52399999998</v>
       </c>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1644,415 +1644,415 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ref="V17:BA17" si="56">U17*(1+$X$20)</f>
-        <v>16759.203608036656</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="56"/>
-        <v>16926.795644117024</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="56"/>
-        <v>17096.063600558195</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="56"/>
-        <v>17267.024236563775</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="56"/>
-        <v>17439.694478929414</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="56"/>
-        <v>17614.09142371871</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="56"/>
-        <v>17790.232337955898</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="56"/>
-        <v>17968.134661335458</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="56"/>
-        <v>18147.816007948812</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AE17" s="2">
         <f t="shared" si="56"/>
-        <v>18329.2941680283</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="56"/>
-        <v>18512.587109708584</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="56"/>
-        <v>18697.712980805671</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AH17" s="2">
         <f t="shared" si="56"/>
-        <v>18884.690110613727</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="56"/>
-        <v>19073.537011719865</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AJ17" s="2">
         <f t="shared" si="56"/>
-        <v>19264.272381837065</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="56"/>
-        <v>19456.915105655436</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AL17" s="2">
         <f t="shared" si="56"/>
-        <v>19651.484256711992</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" si="56"/>
-        <v>19847.999099279114</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="56"/>
-        <v>20046.479090271903</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="56"/>
-        <v>20246.943881174622</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AP17" s="2">
         <f t="shared" si="56"/>
-        <v>20449.413319986368</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AQ17" s="2">
         <f t="shared" si="56"/>
-        <v>20653.907453186232</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AR17" s="2">
         <f t="shared" si="56"/>
-        <v>20860.446527718093</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AS17" s="2">
         <f t="shared" si="56"/>
-        <v>21069.050992995275</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AT17" s="2">
         <f t="shared" si="56"/>
-        <v>21279.74150292523</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AU17" s="2">
         <f t="shared" si="56"/>
-        <v>21492.538917954484</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AV17" s="2">
         <f t="shared" si="56"/>
-        <v>21707.464307134029</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AW17" s="2">
         <f t="shared" si="56"/>
-        <v>21924.538950205369</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AX17" s="2">
         <f t="shared" si="56"/>
-        <v>22143.784339707425</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AY17" s="2">
         <f t="shared" si="56"/>
-        <v>22365.222183104499</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="AZ17" s="2">
         <f t="shared" si="56"/>
-        <v>22588.874404935545</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BA17" s="2">
         <f t="shared" si="56"/>
-        <v>22814.763148984901</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BB17" s="2">
         <f t="shared" ref="BB17:CG17" si="57">BA17*(1+$X$20)</f>
-        <v>23042.910780474751</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BC17" s="2">
         <f t="shared" si="57"/>
-        <v>23273.339888279497</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BD17" s="2">
         <f t="shared" si="57"/>
-        <v>23506.073287162293</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BE17" s="2">
         <f t="shared" si="57"/>
-        <v>23741.134020033915</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BF17" s="2">
         <f t="shared" si="57"/>
-        <v>23978.545360234253</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BG17" s="2">
         <f t="shared" si="57"/>
-        <v>24218.330813836597</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BH17" s="2">
         <f t="shared" si="57"/>
-        <v>24460.514121974964</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BI17" s="2">
         <f t="shared" si="57"/>
-        <v>24705.119263194712</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BJ17" s="2">
         <f t="shared" si="57"/>
-        <v>24952.170455826661</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BK17" s="2">
         <f t="shared" si="57"/>
-        <v>25201.69216038493</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BL17" s="2">
         <f t="shared" si="57"/>
-        <v>25453.709081988778</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BM17" s="2">
         <f t="shared" si="57"/>
-        <v>25708.246172808667</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BN17" s="2">
         <f t="shared" si="57"/>
-        <v>25965.328634536756</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BO17" s="2">
         <f t="shared" si="57"/>
-        <v>26224.981920882125</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BP17" s="2">
         <f t="shared" si="57"/>
-        <v>26487.231740090945</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BQ17" s="2">
         <f t="shared" si="57"/>
-        <v>26752.104057491855</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BR17" s="2">
         <f t="shared" si="57"/>
-        <v>27019.625098066776</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BS17" s="2">
         <f t="shared" si="57"/>
-        <v>27289.821349047445</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BT17" s="2">
         <f t="shared" si="57"/>
-        <v>27562.719562537921</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BU17" s="2">
         <f t="shared" si="57"/>
-        <v>27838.346758163301</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BV17" s="2">
         <f t="shared" si="57"/>
-        <v>28116.730225744934</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BW17" s="2">
         <f t="shared" si="57"/>
-        <v>28397.897528002384</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BX17" s="2">
         <f t="shared" si="57"/>
-        <v>28681.876503282409</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BY17" s="2">
         <f t="shared" si="57"/>
-        <v>28968.695268315234</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="BZ17" s="2">
         <f t="shared" si="57"/>
-        <v>29258.382220998388</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CA17" s="2">
         <f t="shared" si="57"/>
-        <v>29550.966043208373</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CB17" s="2">
         <f t="shared" si="57"/>
-        <v>29846.475703640455</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CC17" s="2">
         <f t="shared" si="57"/>
-        <v>30144.940460676858</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CD17" s="2">
         <f t="shared" si="57"/>
-        <v>30446.389865283629</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CE17" s="2">
         <f t="shared" si="57"/>
-        <v>30750.853763936466</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CF17" s="2">
         <f t="shared" si="57"/>
-        <v>31058.362301575831</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CG17" s="2">
         <f t="shared" si="57"/>
-        <v>31368.94592459159</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CH17" s="2">
         <f t="shared" ref="CH17:DM17" si="58">CG17*(1+$X$20)</f>
-        <v>31682.635383837507</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CI17" s="2">
         <f t="shared" si="58"/>
-        <v>31999.461737675883</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CJ17" s="2">
         <f t="shared" si="58"/>
-        <v>32319.456355052644</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CK17" s="2">
         <f t="shared" si="58"/>
-        <v>32642.650918603169</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CL17" s="2">
         <f t="shared" si="58"/>
-        <v>32969.077427789198</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CM17" s="2">
         <f t="shared" si="58"/>
-        <v>33298.768202067091</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CN17" s="2">
         <f t="shared" si="58"/>
-        <v>33631.755884087761</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CO17" s="2">
         <f t="shared" si="58"/>
-        <v>33968.073442928639</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CP17" s="2">
         <f t="shared" si="58"/>
-        <v>34307.754177357929</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CQ17" s="2">
         <f t="shared" si="58"/>
-        <v>34650.831719131507</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CR17" s="2">
         <f t="shared" si="58"/>
-        <v>34997.340036322821</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CS17" s="2">
         <f t="shared" si="58"/>
-        <v>35347.313436686047</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CT17" s="2">
         <f t="shared" si="58"/>
-        <v>35700.786571052908</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CU17" s="2">
         <f t="shared" si="58"/>
-        <v>36057.794436763434</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CV17" s="2">
         <f t="shared" si="58"/>
-        <v>36418.37238113107</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CW17" s="2">
         <f t="shared" si="58"/>
-        <v>36782.556104942378</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CX17" s="2">
         <f t="shared" si="58"/>
-        <v>37150.381665991801</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CY17" s="2">
         <f t="shared" si="58"/>
-        <v>37521.88548265172</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="CZ17" s="2">
         <f t="shared" si="58"/>
-        <v>37897.104337478238</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DA17" s="2">
         <f t="shared" si="58"/>
-        <v>38276.075380853021</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DB17" s="2">
         <f t="shared" si="58"/>
-        <v>38658.836134661549</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DC17" s="2">
         <f t="shared" si="58"/>
-        <v>39045.424496008163</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DD17" s="2">
         <f t="shared" si="58"/>
-        <v>39435.878740968248</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DE17" s="2">
         <f t="shared" si="58"/>
-        <v>39830.237528377933</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DF17" s="2">
         <f t="shared" si="58"/>
-        <v>40228.539903661709</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DG17" s="2">
         <f t="shared" si="58"/>
-        <v>40630.825302698329</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DH17" s="2">
         <f t="shared" si="58"/>
-        <v>41037.133555725311</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DI17" s="2">
         <f t="shared" si="58"/>
-        <v>41447.504891282566</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DJ17" s="2">
         <f t="shared" si="58"/>
-        <v>41861.979940195393</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DK17" s="2">
         <f t="shared" si="58"/>
-        <v>42280.599739597346</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DL17" s="2">
         <f t="shared" si="58"/>
-        <v>42703.405736993322</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DM17" s="2">
         <f t="shared" si="58"/>
-        <v>43130.439794363258</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DN17" s="2">
         <f t="shared" ref="DN17:DT17" si="59">DM17*(1+$X$20)</f>
-        <v>43561.744192306891</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DO17" s="2">
         <f t="shared" si="59"/>
-        <v>43997.361634229957</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DP17" s="2">
         <f t="shared" si="59"/>
-        <v>44437.335250572258</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DQ17" s="2">
         <f t="shared" si="59"/>
-        <v>44881.708603077983</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DR17" s="2">
         <f t="shared" si="59"/>
-        <v>45330.525689108763</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DS17" s="2">
         <f t="shared" si="59"/>
-        <v>45783.830945999849</v>
+        <v>16593.270899046194</v>
       </c>
       <c r="DT17" s="2">
         <f t="shared" si="59"/>
-        <v>46241.669255459849</v>
+        <v>16593.270899046194</v>
       </c>
     </row>
     <row r="18" spans="1:124" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>35</v>
       </c>
       <c r="X20" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:124" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="X22" s="2">
         <f>NPV(X21,Q17:XFD17)+Main!K5-Main!K6</f>
-        <v>228257.50036043517</v>
+        <v>206590.87259365874</v>
       </c>
     </row>
     <row r="23" spans="1:124" x14ac:dyDescent="0.2">
@@ -2411,13 +2411,13 @@
       </c>
       <c r="X23" s="1">
         <f>X22/Main!K3</f>
-        <v>251.62312290405671</v>
+        <v>227.73858665500813</v>
       </c>
     </row>
     <row r="24" spans="1:124" x14ac:dyDescent="0.2">
       <c r="X24" s="8">
         <f>X23/Main!K2-1</f>
-        <v>2.4825613707439853E-3</v>
+        <v>-0.26535939788707053</v>
       </c>
     </row>
     <row r="25" spans="1:124" x14ac:dyDescent="0.2">
